--- a/OBAOLE4421026.xlsx
+++ b/OBAOLE4421026.xlsx
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OBAOLE4421026.xlsx
+++ b/OBAOLE4421026.xlsx
@@ -62,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2970,8 +2969,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2986,8 +2985,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3002,8 +3001,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3018,8 +3017,8 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3034,8 +3033,8 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3050,8 +3049,8 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3066,8 +3065,8 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3082,8 +3081,8 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3098,8 +3097,8 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3114,8 +3113,8 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3130,8 +3129,8 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
+      <c r="D12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
